--- a/data/pca/factorExposure/factorExposure_2009-04-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01703440577964985</v>
+        <v>0.01655283619188563</v>
       </c>
       <c r="C2">
-        <v>-0.00205776416598507</v>
+        <v>0.001464957052108724</v>
       </c>
       <c r="D2">
-        <v>0.007697038954638252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008435849054498011</v>
+      </c>
+      <c r="E2">
+        <v>0.001827002472587212</v>
+      </c>
+      <c r="F2">
+        <v>0.0208859563908775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08588699711604564</v>
+        <v>0.08884630669546294</v>
       </c>
       <c r="C4">
-        <v>-0.01993133558562127</v>
+        <v>0.01565791801910026</v>
       </c>
       <c r="D4">
-        <v>0.08270068837947019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08568993396083463</v>
+      </c>
+      <c r="E4">
+        <v>0.03576631535197915</v>
+      </c>
+      <c r="F4">
+        <v>-0.04388322863795008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006765664089125363</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.108561657046112e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.00028323717250819</v>
+      </c>
+      <c r="E5">
+        <v>-0.000137060264082881</v>
+      </c>
+      <c r="F5">
+        <v>0.0001905478422469715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1601965687345128</v>
+        <v>0.1661651416833264</v>
       </c>
       <c r="C6">
-        <v>-0.03657714653689623</v>
+        <v>0.03473104593082686</v>
       </c>
       <c r="D6">
-        <v>-0.02642094073067667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01652713196677207</v>
+      </c>
+      <c r="E6">
+        <v>0.01901983912526125</v>
+      </c>
+      <c r="F6">
+        <v>-0.05326634014176004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05528808193035746</v>
+        <v>0.05989732632763953</v>
       </c>
       <c r="C7">
-        <v>-0.001697852599981748</v>
+        <v>-0.001333153516792707</v>
       </c>
       <c r="D7">
-        <v>0.04806937897907362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0531183080286689</v>
+      </c>
+      <c r="E7">
+        <v>0.01740791893870304</v>
+      </c>
+      <c r="F7">
+        <v>-0.05326843293967957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05770572528784498</v>
+        <v>0.05483206156706979</v>
       </c>
       <c r="C8">
-        <v>0.009712236570280641</v>
+        <v>-0.011367137356965</v>
       </c>
       <c r="D8">
-        <v>0.02805381590935084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03072000577117264</v>
+      </c>
+      <c r="E8">
+        <v>0.01212496506531065</v>
+      </c>
+      <c r="F8">
+        <v>0.0358274702237717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06677841782499735</v>
+        <v>0.06953151624209956</v>
       </c>
       <c r="C9">
-        <v>-0.0156680955361027</v>
+        <v>0.01130487304649595</v>
       </c>
       <c r="D9">
-        <v>0.08625279311436139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08967538197706013</v>
+      </c>
+      <c r="E9">
+        <v>0.03414030323300823</v>
+      </c>
+      <c r="F9">
+        <v>-0.06340710028704719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09256376894298012</v>
+        <v>0.08993115753759805</v>
       </c>
       <c r="C10">
-        <v>-0.02254278511196733</v>
+        <v>0.0247074545518654</v>
       </c>
       <c r="D10">
-        <v>-0.1625179738479789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1530836636031286</v>
+      </c>
+      <c r="E10">
+        <v>-0.04154064409696598</v>
+      </c>
+      <c r="F10">
+        <v>0.0708598107639529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08746840131665647</v>
+        <v>0.08472042912169352</v>
       </c>
       <c r="C11">
-        <v>-0.01733796039275204</v>
+        <v>0.01237064808421788</v>
       </c>
       <c r="D11">
-        <v>0.1214193244898413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.125807307771678</v>
+      </c>
+      <c r="E11">
+        <v>0.05946660595072781</v>
+      </c>
+      <c r="F11">
+        <v>-0.01673049097531698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09238783602200223</v>
+        <v>0.08768278411157929</v>
       </c>
       <c r="C12">
-        <v>-0.01532150079964254</v>
+        <v>0.009811087229285344</v>
       </c>
       <c r="D12">
-        <v>0.1262541536995552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1383684262643692</v>
+      </c>
+      <c r="E12">
+        <v>0.06244617747374381</v>
+      </c>
+      <c r="F12">
+        <v>-0.01959709199821759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04432802741055028</v>
+        <v>0.04467908177384168</v>
       </c>
       <c r="C13">
-        <v>-0.007599877083476651</v>
+        <v>0.004113919752265508</v>
       </c>
       <c r="D13">
-        <v>0.04901339892887057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05687080164930601</v>
+      </c>
+      <c r="E13">
+        <v>0.003617027175493335</v>
+      </c>
+      <c r="F13">
+        <v>-0.01552053116669281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01867130839570716</v>
+        <v>0.02160116427591336</v>
       </c>
       <c r="C14">
-        <v>-0.01479960939725726</v>
+        <v>0.01370851081297478</v>
       </c>
       <c r="D14">
-        <v>0.03445816964393002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03774476091396965</v>
+      </c>
+      <c r="E14">
+        <v>0.02545046125782476</v>
+      </c>
+      <c r="F14">
+        <v>-0.02319655350480874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03387108694133312</v>
+        <v>0.03477130271536153</v>
       </c>
       <c r="C15">
-        <v>-0.008453489390285902</v>
+        <v>0.006677383519555744</v>
       </c>
       <c r="D15">
-        <v>0.05156243509175307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05187658122610415</v>
+      </c>
+      <c r="E15">
+        <v>0.01717080026901008</v>
+      </c>
+      <c r="F15">
+        <v>-0.02934509127133001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06895219884098534</v>
+        <v>0.06799481013170425</v>
       </c>
       <c r="C16">
-        <v>-0.006237146182748423</v>
+        <v>0.001401039781463514</v>
       </c>
       <c r="D16">
-        <v>0.1229019534715486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1338280268431144</v>
+      </c>
+      <c r="E16">
+        <v>0.07121696125805155</v>
+      </c>
+      <c r="F16">
+        <v>-0.01861088975757463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002345257726414209</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001068844746163366</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002062095580984397</v>
+      </c>
+      <c r="E17">
+        <v>0.00491549397766359</v>
+      </c>
+      <c r="F17">
+        <v>0.004234292733615167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02950068052161927</v>
+        <v>0.04629612541834109</v>
       </c>
       <c r="C18">
-        <v>0.0001178835632785228</v>
+        <v>-2.854099694483705e-05</v>
       </c>
       <c r="D18">
-        <v>0.02333828479808719</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.022439910240041</v>
+      </c>
+      <c r="E18">
+        <v>-0.004678230504306116</v>
+      </c>
+      <c r="F18">
+        <v>0.01666558264461127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06257407567900848</v>
+        <v>0.06192588678977026</v>
       </c>
       <c r="C20">
-        <v>-0.005383288314864411</v>
+        <v>0.002454357563047934</v>
       </c>
       <c r="D20">
-        <v>0.08093577150953236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08493698445744824</v>
+      </c>
+      <c r="E20">
+        <v>0.06775402610202733</v>
+      </c>
+      <c r="F20">
+        <v>-0.03477161897807037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0397270681508211</v>
+        <v>0.04190433657215035</v>
       </c>
       <c r="C21">
-        <v>-0.00992450253547133</v>
+        <v>0.007289640470702728</v>
       </c>
       <c r="D21">
-        <v>0.04201676450234716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04163997515755111</v>
+      </c>
+      <c r="E21">
+        <v>0.001891303383750698</v>
+      </c>
+      <c r="F21">
+        <v>0.01450512000069251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04513826401596242</v>
+        <v>0.04417594905690654</v>
       </c>
       <c r="C22">
-        <v>-0.003866241588246068</v>
+        <v>0.002562919091807947</v>
       </c>
       <c r="D22">
-        <v>0.002084680692678528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01214863347817702</v>
+      </c>
+      <c r="E22">
+        <v>0.03606925557363176</v>
+      </c>
+      <c r="F22">
+        <v>0.1024186996285548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04514690955438855</v>
+        <v>0.04418334734142181</v>
       </c>
       <c r="C23">
-        <v>-0.003868573168505885</v>
+        <v>0.0025651231893812</v>
       </c>
       <c r="D23">
-        <v>0.002075914198199932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01214187589785518</v>
+      </c>
+      <c r="E23">
+        <v>0.03607618572762587</v>
+      </c>
+      <c r="F23">
+        <v>0.1024602150975092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07659353100809284</v>
+        <v>0.0744514957447953</v>
       </c>
       <c r="C24">
-        <v>-0.007196332383476165</v>
+        <v>0.002517609382032642</v>
       </c>
       <c r="D24">
-        <v>0.1245861154808779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1274867173638932</v>
+      </c>
+      <c r="E24">
+        <v>0.05583744608901738</v>
+      </c>
+      <c r="F24">
+        <v>-0.0270762910434389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08152848297505957</v>
+        <v>0.07890008748054009</v>
       </c>
       <c r="C25">
-        <v>-0.009728017891349226</v>
+        <v>0.005380912767890846</v>
       </c>
       <c r="D25">
-        <v>0.113695741838683</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.116669974549531</v>
+      </c>
+      <c r="E25">
+        <v>0.04470224139254897</v>
+      </c>
+      <c r="F25">
+        <v>-0.02467290865596159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05671769855914604</v>
+        <v>0.06168440836222847</v>
       </c>
       <c r="C26">
-        <v>-0.01903219159152663</v>
+        <v>0.01626632698903153</v>
       </c>
       <c r="D26">
-        <v>0.05089322556210949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05711567090716849</v>
+      </c>
+      <c r="E26">
+        <v>0.03547687588155226</v>
+      </c>
+      <c r="F26">
+        <v>0.005419103166843292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1489338522082947</v>
+        <v>0.1541582702356984</v>
       </c>
       <c r="C28">
-        <v>-0.0261198113592892</v>
+        <v>0.03049412125094996</v>
       </c>
       <c r="D28">
-        <v>-0.2477061874829978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2458323372745974</v>
+      </c>
+      <c r="E28">
+        <v>-0.06396886315195743</v>
+      </c>
+      <c r="F28">
+        <v>-0.01776299342049229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02573531175267467</v>
+        <v>0.02790446386243314</v>
       </c>
       <c r="C29">
-        <v>-0.01000023672768</v>
+        <v>0.009152533468867284</v>
       </c>
       <c r="D29">
-        <v>0.03395538972599933</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03577811108065839</v>
+      </c>
+      <c r="E29">
+        <v>0.01733521371341018</v>
+      </c>
+      <c r="F29">
+        <v>0.01635512186431869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05261468576067016</v>
+        <v>0.05154156515861125</v>
       </c>
       <c r="C30">
-        <v>-0.006204147798005983</v>
+        <v>0.002515786933304016</v>
       </c>
       <c r="D30">
-        <v>0.07609847323457219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08154457554797918</v>
+      </c>
+      <c r="E30">
+        <v>0.01993361486792762</v>
+      </c>
+      <c r="F30">
+        <v>-0.1053762675470735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05143950829290272</v>
+        <v>0.05186547822360896</v>
       </c>
       <c r="C31">
-        <v>-0.01897401170922391</v>
+        <v>0.01701753207204764</v>
       </c>
       <c r="D31">
-        <v>0.02809257312143503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03042678777803197</v>
+      </c>
+      <c r="E31">
+        <v>0.03167054197864257</v>
+      </c>
+      <c r="F31">
+        <v>0.009065215735223509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04458754197160655</v>
+        <v>0.04984510864353382</v>
       </c>
       <c r="C32">
-        <v>-0.001886867829495675</v>
+        <v>-0.001022722551442933</v>
       </c>
       <c r="D32">
-        <v>0.03281981096146107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03709239856777954</v>
+      </c>
+      <c r="E32">
+        <v>0.0347555878896213</v>
+      </c>
+      <c r="F32">
+        <v>0.001924695602157892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0862751466549152</v>
+        <v>0.08773091766098885</v>
       </c>
       <c r="C33">
-        <v>-0.01375702740965994</v>
+        <v>0.008360330425185188</v>
       </c>
       <c r="D33">
-        <v>0.09666623773373351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1079065494598894</v>
+      </c>
+      <c r="E33">
+        <v>0.06106336017118311</v>
+      </c>
+      <c r="F33">
+        <v>-0.02545999136526411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06434241430226861</v>
+        <v>0.06412689158142368</v>
       </c>
       <c r="C34">
-        <v>-0.0154009758943561</v>
+        <v>0.01086075517966336</v>
       </c>
       <c r="D34">
-        <v>0.1026134377575962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1139735174481304</v>
+      </c>
+      <c r="E34">
+        <v>0.04588259826731443</v>
+      </c>
+      <c r="F34">
+        <v>-0.04170584323203235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02745310616264783</v>
+        <v>0.02852464741644228</v>
       </c>
       <c r="C35">
-        <v>-0.005242340933057486</v>
+        <v>0.00453503844567736</v>
       </c>
       <c r="D35">
-        <v>0.01032126881892936</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01344545856444789</v>
+      </c>
+      <c r="E35">
+        <v>0.01971571380239542</v>
+      </c>
+      <c r="F35">
+        <v>0.001192713000690938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02312323010536627</v>
+        <v>0.02761299563476549</v>
       </c>
       <c r="C36">
-        <v>-0.008356880915925602</v>
+        <v>0.007595582393257168</v>
       </c>
       <c r="D36">
-        <v>0.04251277260769128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04512624515491607</v>
+      </c>
+      <c r="E36">
+        <v>0.02537065037750858</v>
+      </c>
+      <c r="F36">
+        <v>-0.02096410180715825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003091974001784286</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008683542124859043</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003123342964389987</v>
+      </c>
+      <c r="E37">
+        <v>0.001081426380434978</v>
+      </c>
+      <c r="F37">
+        <v>0.001389829911516847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1016918262532023</v>
+        <v>0.09310265369217754</v>
       </c>
       <c r="C39">
-        <v>-0.02196516574964653</v>
+        <v>0.01602371748419918</v>
       </c>
       <c r="D39">
-        <v>0.1578566708675319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1559312203239758</v>
+      </c>
+      <c r="E39">
+        <v>0.07508163672630111</v>
+      </c>
+      <c r="F39">
+        <v>-0.00805346783996172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04289445617685731</v>
+        <v>0.04827005990823051</v>
       </c>
       <c r="C40">
-        <v>-0.01181184401364247</v>
+        <v>0.01026420709922378</v>
       </c>
       <c r="D40">
-        <v>0.03348726406825315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04004141732485142</v>
+      </c>
+      <c r="E40">
+        <v>0.00444813692390549</v>
+      </c>
+      <c r="F40">
+        <v>0.02221741381278377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0263676762550264</v>
+        <v>0.02848007673417246</v>
       </c>
       <c r="C41">
-        <v>-0.008427834647456882</v>
+        <v>0.008008371365597939</v>
       </c>
       <c r="D41">
-        <v>0.01294846512016407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01447295875288495</v>
+      </c>
+      <c r="E41">
+        <v>0.0120654416266134</v>
+      </c>
+      <c r="F41">
+        <v>0.01088085745491269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04044902531024154</v>
+        <v>0.03937746344397406</v>
       </c>
       <c r="C43">
-        <v>-0.009191006015266524</v>
+        <v>0.008230388544575038</v>
       </c>
       <c r="D43">
-        <v>0.0237436688349795</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02438790148415686</v>
+      </c>
+      <c r="E43">
+        <v>0.02895339016372475</v>
+      </c>
+      <c r="F43">
+        <v>0.02296118728984685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06211044726056968</v>
+        <v>0.06952050297611741</v>
       </c>
       <c r="C44">
-        <v>-0.02245129299629955</v>
+        <v>0.01892858002194873</v>
       </c>
       <c r="D44">
-        <v>0.07450576744278267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08435600907776727</v>
+      </c>
+      <c r="E44">
+        <v>0.07756059290792748</v>
+      </c>
+      <c r="F44">
+        <v>-0.2102190687811281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001505670050458512</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.927720816759453e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-5.335079476990552e-07</v>
+      </c>
+      <c r="E45">
+        <v>-0.000383218589958003</v>
+      </c>
+      <c r="F45">
+        <v>3.700803975051604e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02302058962814496</v>
+        <v>0.02527921829275686</v>
       </c>
       <c r="C46">
-        <v>-0.00519543699533302</v>
+        <v>0.004281565523799629</v>
       </c>
       <c r="D46">
-        <v>0.01589711881588613</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01866145974155145</v>
+      </c>
+      <c r="E46">
+        <v>0.0352242766538548</v>
+      </c>
+      <c r="F46">
+        <v>0.02285582524405355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05407336853688884</v>
+        <v>0.05300160410801017</v>
       </c>
       <c r="C47">
-        <v>-0.007421485587587184</v>
+        <v>0.005766364457198944</v>
       </c>
       <c r="D47">
-        <v>0.01339973731996441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01542112763660437</v>
+      </c>
+      <c r="E47">
+        <v>0.02498253908825466</v>
+      </c>
+      <c r="F47">
+        <v>0.04352175723302678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04940870001061558</v>
+        <v>0.0530173161476155</v>
       </c>
       <c r="C48">
-        <v>-0.006355002846876154</v>
+        <v>0.003887244356755996</v>
       </c>
       <c r="D48">
-        <v>0.0591070256733057</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06006577734618968</v>
+      </c>
+      <c r="E48">
+        <v>0.008134765780220482</v>
+      </c>
+      <c r="F48">
+        <v>-0.01680606113970575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1953457323953411</v>
+        <v>0.1976563467190722</v>
       </c>
       <c r="C49">
-        <v>-0.02832220826205081</v>
+        <v>0.02455110731059606</v>
       </c>
       <c r="D49">
-        <v>-0.01382201515815742</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007591273065310348</v>
+      </c>
+      <c r="E49">
+        <v>0.01695459076493775</v>
+      </c>
+      <c r="F49">
+        <v>-0.05548255929703752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04950901796804322</v>
+        <v>0.05230774116211596</v>
       </c>
       <c r="C50">
-        <v>-0.01472859193757703</v>
+        <v>0.01320539630952915</v>
       </c>
       <c r="D50">
-        <v>0.02652822255089226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02878891947870891</v>
+      </c>
+      <c r="E50">
+        <v>0.03439362207777978</v>
+      </c>
+      <c r="F50">
+        <v>-0.00705583019732106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1514886283021175</v>
+        <v>0.1452380526141078</v>
       </c>
       <c r="C52">
-        <v>-0.02524030136121032</v>
+        <v>0.02142215547210506</v>
       </c>
       <c r="D52">
-        <v>0.04400117491567692</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04639462109146467</v>
+      </c>
+      <c r="E52">
+        <v>0.03596608787120845</v>
+      </c>
+      <c r="F52">
+        <v>-0.03712486490452711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.174674697174486</v>
+        <v>0.1673998986299105</v>
       </c>
       <c r="C53">
-        <v>-0.02807755747066875</v>
+        <v>0.02550792653072963</v>
       </c>
       <c r="D53">
-        <v>0.004748053251594209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007531199051896869</v>
+      </c>
+      <c r="E53">
+        <v>0.04389204922064079</v>
+      </c>
+      <c r="F53">
+        <v>-0.08248312086582117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01484575344599479</v>
+        <v>0.01799724808274008</v>
       </c>
       <c r="C54">
-        <v>-0.01185962115637529</v>
+        <v>0.01128054428536133</v>
       </c>
       <c r="D54">
-        <v>0.03085106380870129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03022496662789454</v>
+      </c>
+      <c r="E54">
+        <v>0.02268130932991594</v>
+      </c>
+      <c r="F54">
+        <v>0.0008583382336380922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1198769545224168</v>
+        <v>0.1172345023262912</v>
       </c>
       <c r="C55">
-        <v>-0.02471734292984167</v>
+        <v>0.02231382669747986</v>
       </c>
       <c r="D55">
-        <v>0.006356714359852812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01418723808828721</v>
+      </c>
+      <c r="E55">
+        <v>0.0443243443146022</v>
+      </c>
+      <c r="F55">
+        <v>-0.02853394562930188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1806218633295091</v>
+        <v>0.1748771591659723</v>
       </c>
       <c r="C56">
-        <v>-0.02638382228347083</v>
+        <v>0.0240978527631929</v>
       </c>
       <c r="D56">
-        <v>-0.003596449326979896</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-6.327279613820381e-05</v>
+      </c>
+      <c r="E56">
+        <v>0.04171027299659417</v>
+      </c>
+      <c r="F56">
+        <v>-0.04248519682652786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04493228962429718</v>
+        <v>0.04398924830324154</v>
       </c>
       <c r="C58">
-        <v>-0.00423352657494415</v>
+        <v>0.0003242212628760946</v>
       </c>
       <c r="D58">
-        <v>0.07542909785069303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08345089439139888</v>
+      </c>
+      <c r="E58">
+        <v>0.04512813819393884</v>
+      </c>
+      <c r="F58">
+        <v>0.04517162009927185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1694888142672385</v>
+        <v>0.1745158549267216</v>
       </c>
       <c r="C59">
-        <v>-0.02627744405891447</v>
+        <v>0.02977320395237854</v>
       </c>
       <c r="D59">
-        <v>-0.2114620968090175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.210247197158307</v>
+      </c>
+      <c r="E59">
+        <v>-0.05837074115019312</v>
+      </c>
+      <c r="F59">
+        <v>0.0646219878573787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2254000950713893</v>
+        <v>0.2202370540152459</v>
       </c>
       <c r="C60">
-        <v>-0.008109250165253611</v>
+        <v>0.003609710075496327</v>
       </c>
       <c r="D60">
-        <v>0.01891666063559426</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01993229708699863</v>
+      </c>
+      <c r="E60">
+        <v>-0.01644102156480935</v>
+      </c>
+      <c r="F60">
+        <v>0.011281007861396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07409348519418957</v>
+        <v>0.07000199243304238</v>
       </c>
       <c r="C61">
-        <v>-0.01545782746986539</v>
+        <v>0.01067610897302594</v>
       </c>
       <c r="D61">
-        <v>0.1174179228926212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1197825854901543</v>
+      </c>
+      <c r="E61">
+        <v>0.04405832566414903</v>
+      </c>
+      <c r="F61">
+        <v>0.001648418247413476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1712702797456665</v>
+        <v>0.1671715997738908</v>
       </c>
       <c r="C62">
-        <v>-0.02910667703637947</v>
+        <v>0.02617078130016613</v>
       </c>
       <c r="D62">
-        <v>0.0020763169477909</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007501451150165493</v>
+      </c>
+      <c r="E62">
+        <v>0.04799721733020099</v>
+      </c>
+      <c r="F62">
+        <v>-0.024482420389624</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0425652456004179</v>
+        <v>0.04787918955008781</v>
       </c>
       <c r="C63">
-        <v>-0.005967140173075472</v>
+        <v>0.003521844407463889</v>
       </c>
       <c r="D63">
-        <v>0.06400097764445757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07175932262385432</v>
+      </c>
+      <c r="E63">
+        <v>0.03163455022601149</v>
+      </c>
+      <c r="F63">
+        <v>0.002457683664620386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1142627220658505</v>
+        <v>0.1114214021345458</v>
       </c>
       <c r="C64">
-        <v>-0.0194368333916317</v>
+        <v>0.0156100635430129</v>
       </c>
       <c r="D64">
-        <v>0.04654117595392004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05033878739751834</v>
+      </c>
+      <c r="E64">
+        <v>0.03417527671556957</v>
+      </c>
+      <c r="F64">
+        <v>-0.02249291528892729</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1502659112831038</v>
+        <v>0.1559280677047924</v>
       </c>
       <c r="C65">
-        <v>-0.04229230908533246</v>
+        <v>0.04101976405172496</v>
       </c>
       <c r="D65">
-        <v>-0.04881325577753012</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03759891160017165</v>
+      </c>
+      <c r="E65">
+        <v>0.01263234280716106</v>
+      </c>
+      <c r="F65">
+        <v>-0.05191771098551886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1237145104196754</v>
+        <v>0.1128185226011828</v>
       </c>
       <c r="C66">
-        <v>-0.02093917632094409</v>
+        <v>0.01437762587618814</v>
       </c>
       <c r="D66">
-        <v>0.1424348882079205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.14569095505479</v>
+      </c>
+      <c r="E66">
+        <v>0.07141833147755586</v>
+      </c>
+      <c r="F66">
+        <v>-0.01338290310955661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06003569343125634</v>
+        <v>0.05296446730858463</v>
       </c>
       <c r="C67">
-        <v>-0.006483968556332601</v>
+        <v>0.003973182088782814</v>
       </c>
       <c r="D67">
-        <v>0.05249836609269628</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05553094360542119</v>
+      </c>
+      <c r="E67">
+        <v>0.02199686195710151</v>
+      </c>
+      <c r="F67">
+        <v>0.08253737384121015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1195652632103508</v>
+        <v>0.1261640865854687</v>
       </c>
       <c r="C68">
-        <v>-0.03456374290366441</v>
+        <v>0.03999142940344076</v>
       </c>
       <c r="D68">
-        <v>-0.2517004974277442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.251128355595441</v>
+      </c>
+      <c r="E68">
+        <v>-0.08958998599414845</v>
+      </c>
+      <c r="F68">
+        <v>-0.03042230685528779</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03963465657781286</v>
+        <v>0.03903369190290124</v>
       </c>
       <c r="C69">
-        <v>-0.00350732775418535</v>
+        <v>0.002440671698738339</v>
       </c>
       <c r="D69">
-        <v>0.009945533008501732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01053604262785337</v>
+      </c>
+      <c r="E69">
+        <v>0.03086475492951857</v>
+      </c>
+      <c r="F69">
+        <v>0.02038406914976725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06898699889262622</v>
+        <v>0.06998651232507795</v>
       </c>
       <c r="C70">
-        <v>0.02279552820275996</v>
+        <v>-0.02455483769690984</v>
       </c>
       <c r="D70">
-        <v>0.03906634158517516</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0375303149839426</v>
+      </c>
+      <c r="E70">
+        <v>-0.04378538480786263</v>
+      </c>
+      <c r="F70">
+        <v>0.3580250826903694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1393434158073159</v>
+        <v>0.1468632272457007</v>
       </c>
       <c r="C71">
-        <v>-0.04018395427639693</v>
+        <v>0.04544776812312667</v>
       </c>
       <c r="D71">
-        <v>-0.2656322664746921</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2606500885616358</v>
+      </c>
+      <c r="E71">
+        <v>-0.09969433144560029</v>
+      </c>
+      <c r="F71">
+        <v>-0.03041155526853602</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1384035411185388</v>
+        <v>0.1444909989631949</v>
       </c>
       <c r="C72">
-        <v>-0.03269100557174937</v>
+        <v>0.03184845352844509</v>
       </c>
       <c r="D72">
-        <v>0.005866723300413695</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00279709951113164</v>
+      </c>
+      <c r="E72">
+        <v>0.04782180501848485</v>
+      </c>
+      <c r="F72">
+        <v>-0.03054171936994813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.195989925457189</v>
+        <v>0.2004469875890939</v>
       </c>
       <c r="C73">
-        <v>-0.02189373492723377</v>
+        <v>0.01671415327284159</v>
       </c>
       <c r="D73">
-        <v>0.005200080279781289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01323290851047735</v>
+      </c>
+      <c r="E73">
+        <v>0.06235748608753892</v>
+      </c>
+      <c r="F73">
+        <v>-0.01218232824152986</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08833368070480403</v>
+        <v>0.08839651426418305</v>
       </c>
       <c r="C74">
-        <v>-0.01665048769719236</v>
+        <v>0.01460647163562889</v>
       </c>
       <c r="D74">
-        <v>0.01326589322882331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01859934179938979</v>
+      </c>
+      <c r="E74">
+        <v>0.05052656859708038</v>
+      </c>
+      <c r="F74">
+        <v>-0.04947979126166943</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1298888450799344</v>
+        <v>0.1224026347249261</v>
       </c>
       <c r="C75">
-        <v>-0.03503117323045472</v>
+        <v>0.03172055008728409</v>
       </c>
       <c r="D75">
-        <v>0.0270480913946413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0323732983130656</v>
+      </c>
+      <c r="E75">
+        <v>0.06390341420666822</v>
+      </c>
+      <c r="F75">
+        <v>-0.01204566004691083</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07931591082860869</v>
+        <v>0.09218792225741471</v>
       </c>
       <c r="C77">
-        <v>-0.0150806877673434</v>
+        <v>0.01114954254282562</v>
       </c>
       <c r="D77">
-        <v>0.1141666369262844</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.114909475174267</v>
+      </c>
+      <c r="E77">
+        <v>0.05219917044305592</v>
+      </c>
+      <c r="F77">
+        <v>-0.04149567458441419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09673118673275669</v>
+        <v>0.09835261380746438</v>
       </c>
       <c r="C78">
-        <v>-0.04421076879322201</v>
+        <v>0.04063722250526466</v>
       </c>
       <c r="D78">
-        <v>0.117469684767004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1158041899142111</v>
+      </c>
+      <c r="E78">
+        <v>0.07872130599863367</v>
+      </c>
+      <c r="F78">
+        <v>-0.0392156218549999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1690712238666639</v>
+        <v>0.1646296946391858</v>
       </c>
       <c r="C79">
-        <v>-0.03275826402229597</v>
+        <v>0.02937440760716589</v>
       </c>
       <c r="D79">
-        <v>0.01230919349780465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01815006187857764</v>
+      </c>
+      <c r="E79">
+        <v>0.04998361650536946</v>
+      </c>
+      <c r="F79">
+        <v>-0.006689598226460924</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07901506412099681</v>
+        <v>0.07717437849534471</v>
       </c>
       <c r="C80">
-        <v>-0.003820371511767567</v>
+        <v>0.001419634949176162</v>
       </c>
       <c r="D80">
-        <v>0.04966400507718703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05125619964762779</v>
+      </c>
+      <c r="E80">
+        <v>0.04251030602831569</v>
+      </c>
+      <c r="F80">
+        <v>0.04843243421666022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1178121600934739</v>
+        <v>0.111733601150569</v>
       </c>
       <c r="C81">
-        <v>-0.03680317937270792</v>
+        <v>0.0350021638206101</v>
       </c>
       <c r="D81">
-        <v>0.005523122811227119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01108147824399415</v>
+      </c>
+      <c r="E81">
+        <v>0.05695483436000039</v>
+      </c>
+      <c r="F81">
+        <v>-0.002644703921262149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.163414594437411</v>
+        <v>0.161652471392779</v>
       </c>
       <c r="C82">
-        <v>-0.03237666103673153</v>
+        <v>0.02988901042445232</v>
       </c>
       <c r="D82">
-        <v>0.004115199718143235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004492315931952464</v>
+      </c>
+      <c r="E82">
+        <v>0.04353803986395069</v>
+      </c>
+      <c r="F82">
+        <v>-0.08118649397740384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05439797077330098</v>
+        <v>0.05035467835333914</v>
       </c>
       <c r="C83">
-        <v>-0.005348351373780129</v>
+        <v>0.003379037083116662</v>
       </c>
       <c r="D83">
-        <v>0.03861797824238326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03869041020435497</v>
+      </c>
+      <c r="E83">
+        <v>-0.008248439268883669</v>
+      </c>
+      <c r="F83">
+        <v>0.02656279320296095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05616725788009606</v>
+        <v>0.05262507501649274</v>
       </c>
       <c r="C84">
-        <v>-0.01382557444312447</v>
+        <v>0.01105564669491991</v>
       </c>
       <c r="D84">
-        <v>0.07324138178152383</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0742196447027399</v>
+      </c>
+      <c r="E84">
+        <v>0.02219550505541943</v>
+      </c>
+      <c r="F84">
+        <v>-0.005474902639269516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1400606423985971</v>
+        <v>0.1345922265648082</v>
       </c>
       <c r="C85">
-        <v>-0.03577048421685424</v>
+        <v>0.03324125041431063</v>
       </c>
       <c r="D85">
-        <v>0.008365385753134244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01251642220529907</v>
+      </c>
+      <c r="E85">
+        <v>0.05012857911464966</v>
+      </c>
+      <c r="F85">
+        <v>-0.05389455082171814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08150491107369247</v>
+        <v>0.08040806446482858</v>
       </c>
       <c r="C86">
-        <v>0.00462379072589363</v>
+        <v>-0.007047039514688994</v>
       </c>
       <c r="D86">
-        <v>0.02877053291976878</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05501374531793603</v>
+      </c>
+      <c r="E86">
+        <v>0.06289448049646194</v>
+      </c>
+      <c r="F86">
+        <v>0.8130745987285157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08935887226001141</v>
+        <v>0.08939206086606472</v>
       </c>
       <c r="C87">
-        <v>-0.02680734986088358</v>
+        <v>0.02231524553130953</v>
       </c>
       <c r="D87">
-        <v>0.08114047415322372</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08462266444339252</v>
+      </c>
+      <c r="E87">
+        <v>-0.05776123042258131</v>
+      </c>
+      <c r="F87">
+        <v>-0.08336615395051854</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06235563407020897</v>
+        <v>0.06097128264255899</v>
       </c>
       <c r="C88">
-        <v>-0.006804540150306397</v>
+        <v>0.004342018547605854</v>
       </c>
       <c r="D88">
-        <v>0.05743963136449123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05592336556716954</v>
+      </c>
+      <c r="E88">
+        <v>0.03377620651361592</v>
+      </c>
+      <c r="F88">
+        <v>-0.003658382637363488</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1284304418461294</v>
+        <v>0.1336953770822264</v>
       </c>
       <c r="C89">
-        <v>-0.01496093516508248</v>
+        <v>0.01994393378565361</v>
       </c>
       <c r="D89">
-        <v>-0.2266324590268818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2321501507082652</v>
+      </c>
+      <c r="E89">
+        <v>-0.09095065711507305</v>
+      </c>
+      <c r="F89">
+        <v>-0.01974202583793026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1505025984064922</v>
+        <v>0.1619293284047294</v>
       </c>
       <c r="C90">
-        <v>-0.03672256378636665</v>
+        <v>0.04267529808468656</v>
       </c>
       <c r="D90">
-        <v>-0.2548310354043799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2585681531188871</v>
+      </c>
+      <c r="E90">
+        <v>-0.1192264221710957</v>
+      </c>
+      <c r="F90">
+        <v>-0.02440072681880236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1259386276723915</v>
+        <v>0.1213558414822483</v>
       </c>
       <c r="C91">
-        <v>-0.0266267868018088</v>
+        <v>0.02514468183381221</v>
       </c>
       <c r="D91">
-        <v>-0.01974687855344467</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0147455704306877</v>
+      </c>
+      <c r="E91">
+        <v>0.05689708607066424</v>
+      </c>
+      <c r="F91">
+        <v>0.02578085582567281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1509472653817961</v>
+        <v>0.1547040622488719</v>
       </c>
       <c r="C92">
-        <v>-0.02772917771174202</v>
+        <v>0.03304662765471415</v>
       </c>
       <c r="D92">
-        <v>-0.2795890623852456</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.283389419560549</v>
+      </c>
+      <c r="E92">
+        <v>-0.1073355028327993</v>
+      </c>
+      <c r="F92">
+        <v>-0.01118803896785921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1548746689874657</v>
+        <v>0.1644449510275327</v>
       </c>
       <c r="C93">
-        <v>-0.03259104245320407</v>
+        <v>0.03734331376356367</v>
       </c>
       <c r="D93">
-        <v>-0.2478635487103451</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2519189122636522</v>
+      </c>
+      <c r="E93">
+        <v>-0.07101504869068888</v>
+      </c>
+      <c r="F93">
+        <v>-0.02055250772645362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1289722265494384</v>
+        <v>0.1217631607119053</v>
       </c>
       <c r="C94">
-        <v>-0.03110474840502661</v>
+        <v>0.02736364262205324</v>
       </c>
       <c r="D94">
-        <v>0.0399910096363247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04403161782083276</v>
+      </c>
+      <c r="E94">
+        <v>0.06626276615347756</v>
+      </c>
+      <c r="F94">
+        <v>-0.01539576821718374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266694887396167</v>
+        <v>0.129148763427112</v>
       </c>
       <c r="C95">
-        <v>-0.01300357007750441</v>
+        <v>0.007521561609543989</v>
       </c>
       <c r="D95">
-        <v>0.09782633956354371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1085755762052377</v>
+      </c>
+      <c r="E95">
+        <v>0.06527774369202499</v>
+      </c>
+      <c r="F95">
+        <v>0.02070318598993837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1592111428906002</v>
+        <v>0.1439843154250938</v>
       </c>
       <c r="C96">
-        <v>0.981301104908609</v>
+        <v>-0.9826260674250216</v>
       </c>
       <c r="D96">
-        <v>-0.03534110939558194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05701466140045635</v>
+      </c>
+      <c r="E96">
+        <v>0.05253884326437804</v>
+      </c>
+      <c r="F96">
+        <v>-0.04296994061230656</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1904179018471419</v>
+        <v>0.1937442883356436</v>
       </c>
       <c r="C97">
-        <v>-0.003219171703561488</v>
+        <v>0.0003907674541331127</v>
       </c>
       <c r="D97">
-        <v>-0.01939321467495659</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02503135552264758</v>
+      </c>
+      <c r="E97">
+        <v>0.01523063751198806</v>
+      </c>
+      <c r="F97">
+        <v>0.1749889056004899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1949120926712253</v>
+        <v>0.2011179318059259</v>
       </c>
       <c r="C98">
-        <v>-0.01657063785130468</v>
+        <v>0.01138995969104366</v>
       </c>
       <c r="D98">
-        <v>0.01348392399679979</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01516184084983726</v>
+      </c>
+      <c r="E98">
+        <v>-0.1010398621035891</v>
+      </c>
+      <c r="F98">
+        <v>0.08513878756381189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05791399490933989</v>
+        <v>0.0575672913116154</v>
       </c>
       <c r="C99">
-        <v>-0.0001871302691650792</v>
+        <v>-0.002087503468619992</v>
       </c>
       <c r="D99">
-        <v>0.04343794903772095</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04885483384001919</v>
+      </c>
+      <c r="E99">
+        <v>0.03108553768188006</v>
+      </c>
+      <c r="F99">
+        <v>0.005811580531826347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1400773652875163</v>
+        <v>0.1300814175154445</v>
       </c>
       <c r="C100">
-        <v>0.03655222605568732</v>
+        <v>-0.04569032851752761</v>
       </c>
       <c r="D100">
-        <v>0.4234136473816718</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3798873195585168</v>
+      </c>
+      <c r="E100">
+        <v>-0.8853187259795292</v>
+      </c>
+      <c r="F100">
+        <v>-0.0104209476843863</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02574311542029368</v>
+        <v>0.02796315545162345</v>
       </c>
       <c r="C101">
-        <v>-0.01001274559969244</v>
+        <v>0.009184601225686305</v>
       </c>
       <c r="D101">
-        <v>0.03347371729669973</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03531571014187555</v>
+      </c>
+      <c r="E101">
+        <v>0.01671356672384231</v>
+      </c>
+      <c r="F101">
+        <v>0.01882037351573988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
